--- a/Uloha5/uloha5_offline.xlsx
+++ b/Uloha5/uloha5_offline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{2D5214AC-FD13-4110-93F6-BEDF05AE67FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214EBE1E-0C07-4A98-8AB0-5860B77E52C6}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{2D5214AC-FD13-4110-93F6-BEDF05AE67FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D692A214-F3C6-4912-8263-2E2C028F0A21}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5A AUDIO" sheetId="1" r:id="rId1"/>
@@ -620,6 +620,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1192,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,70 +1322,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1392,6 +1397,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,15 +1769,15 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:28" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,22 +1814,22 @@
       <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="Q3" s="44" t="s">
+      <c r="Q3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="46"/>
-      <c r="W3" s="44" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="57"/>
+      <c r="W3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="57"/>
     </row>
-    <row r="4" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1791,20 +1878,20 @@
       <c r="T4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="47" t="s">
+      <c r="W4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="47" t="s">
+      <c r="X4" s="63"/>
+      <c r="Y4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="47" t="s">
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="48"/>
+      <c r="AB4" s="63"/>
     </row>
-    <row r="5" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1853,20 +1940,20 @@
       <c r="T5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="42" t="s">
+      <c r="X5" s="61"/>
+      <c r="Y5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="42" t="s">
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AB5" s="43"/>
+      <c r="AB5" s="61"/>
     </row>
-    <row r="6" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1917,21 +2004,21 @@
         <f t="array" ref="T6:T11">20*LOG((S6:S11*0.001)/(R6:R11),10)</f>
         <v>-99.901667181904344</v>
       </c>
-      <c r="W6" s="57">
+      <c r="W6" s="50">
         <v>0.29199999999999998</v>
       </c>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="59">
+      <c r="X6" s="51"/>
+      <c r="Y6" s="52">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="60">
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="53">
         <f>20*LOG((W6)/(Y6*0.001),10)</f>
         <v>97.2664572024091</v>
       </c>
-      <c r="AB6" s="61"/>
+      <c r="AB6" s="54"/>
     </row>
-    <row r="7" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q7" s="14">
         <v>1994</v>
       </c>
@@ -1944,16 +2031,16 @@
       <c r="T7" s="11">
         <v>-95.217492761043786</v>
       </c>
-      <c r="W7" s="44" t="s">
+      <c r="W7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="46"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="57"/>
     </row>
-    <row r="8" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="41" t="s">
         <v>50</v>
       </c>
@@ -1976,22 +2063,22 @@
       <c r="T8" s="11">
         <v>-93.884580470502357</v>
       </c>
-      <c r="W8" s="62" t="s">
+      <c r="W8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="X8" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="42" t="s">
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="43"/>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q9" s="14">
         <v>9970</v>
       </c>
@@ -2004,20 +2091,20 @@
       <c r="T9" s="11">
         <v>-90.796195255371188</v>
       </c>
-      <c r="W9" s="63"/>
-      <c r="X9" s="42" t="s">
+      <c r="W9" s="59"/>
+      <c r="X9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="42" t="s">
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="43"/>
+      <c r="AA9" s="61"/>
       <c r="AB9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:28" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,20 +2132,20 @@
       <c r="W10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="49">
+      <c r="X10" s="42">
         <v>4.71</v>
       </c>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="53">
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="46">
         <v>3.17</v>
       </c>
-      <c r="AA10" s="54"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="11">
         <f>X10/Z10</f>
         <v>1.4858044164037856</v>
       </c>
     </row>
-    <row r="11" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2086,18 +2173,18 @@
       <c r="W11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="55">
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="48">
         <v>3.6</v>
       </c>
-      <c r="AA11" s="56"/>
+      <c r="AA11" s="49"/>
       <c r="AB11" s="6">
         <f>X10/Z11</f>
         <v>1.3083333333333333</v>
       </c>
     </row>
-    <row r="12" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="3">
         <v>1</v>
       </c>
@@ -2112,7 +2199,7 @@
         <v>237.13737056616549</v>
       </c>
     </row>
-    <row r="13" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="3">
         <v>2</v>
       </c>
@@ -2126,7 +2213,7 @@
         <v>0.42169650342858195</v>
       </c>
     </row>
-    <row r="14" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="3">
         <v>3</v>
       </c>
@@ -2140,7 +2227,7 @@
         <v>0.23713737056616535</v>
       </c>
     </row>
-    <row r="15" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="3">
         <v>4</v>
       </c>
@@ -2154,7 +2241,7 @@
         <v>5.6234132519034884E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:28" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="3">
         <v>5</v>
       </c>
@@ -2168,7 +2255,7 @@
         <v>0.39241897584845342</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="3">
         <v>6</v>
       </c>
@@ -2182,7 +2269,7 @@
         <v>0.23713737056616535</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="3">
         <v>7</v>
       </c>
@@ -2196,7 +2283,7 @@
         <v>0.13335214321633237</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="3">
         <v>8</v>
       </c>
@@ -2210,7 +2297,7 @@
         <v>3.162277660168375E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="3">
         <v>9</v>
       </c>
@@ -2224,7 +2311,7 @@
         <v>6.4938163157621076E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="2">
         <v>10</v>
       </c>
@@ -2238,9 +2325,17 @@
         <v>3.6517412725483762E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="X10:Y11"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="Z11:AA11"/>
@@ -2253,14 +2348,6 @@
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2269,19 +2356,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EE3519-B4D8-42E5-A4D3-DAE0E3976C95}">
-  <dimension ref="C2:DB33"/>
+  <dimension ref="C2:DB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO6" workbookViewId="0">
-      <selection activeCell="BA16" sqref="BA16"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="CO21" sqref="CO21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:106" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:106" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>38</v>
       </c>
@@ -2298,7 +2386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
@@ -2570,7 +2658,7 @@
       <c r="DA3" s="18"/>
       <c r="DB3" s="19"/>
     </row>
-    <row r="4" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>30</v>
       </c>
@@ -2842,7 +2930,7 @@
       <c r="DA4" s="23"/>
       <c r="DB4" s="24"/>
     </row>
-    <row r="5" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="25" t="s">
         <v>32</v>
       </c>
@@ -3114,7 +3202,7 @@
       <c r="DA5" s="28"/>
       <c r="DB5" s="29"/>
     </row>
-    <row r="6" spans="3:106" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:106" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="25" t="s">
         <v>33</v>
       </c>
@@ -3391,7 +3479,7 @@
       <c r="DA6" s="28"/>
       <c r="DB6" s="29"/>
     </row>
-    <row r="7" spans="3:106" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:106" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
@@ -3668,7 +3756,7 @@
       <c r="DA7" s="28"/>
       <c r="DB7" s="29"/>
     </row>
-    <row r="8" spans="3:106" ht="18.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:106" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="64" t="s">
         <v>49</v>
       </c>
@@ -3770,9 +3858,9 @@
       <c r="DA8" s="65"/>
       <c r="DB8" s="66"/>
     </row>
-    <row r="9" spans="3:106" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="3:106" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="3:106" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:106" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:106" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="3:106" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="15" t="s">
         <v>29</v>
       </c>
@@ -3849,7 +3937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="3:106" ht="18.350000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:106" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
@@ -3926,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:106" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:106" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="17">
         <v>0</v>
       </c>
@@ -3996,46 +4084,46 @@
       <c r="CM13" s="27">
         <v>-0.48099999999999998</v>
       </c>
-      <c r="CN13" s="27" cm="1">
+      <c r="CN13" s="80" cm="1">
         <f t="array" ref="CN13:CN19">((CK13:CK19)/(CL13:CL19*0.000001))*0.001</f>
         <v>166.66666666666669</v>
       </c>
-      <c r="CO13" s="27" cm="1">
+      <c r="CO13" s="68" cm="1">
         <f t="array" ref="CO13:CO19">CM13:CM19/CK13:CK19</f>
         <v>-4.8099999999999996</v>
       </c>
     </row>
-    <row r="14" spans="3:106" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="17">
+    <row r="14" spans="3:106" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="71">
         <v>0.5</v>
       </c>
       <c r="D14" s="22">
         <v>0</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="68">
         <v>1.2549999999999999</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="27" cm="1">
+      <c r="G14" s="68" cm="1">
         <f t="array" ref="G14:G28">E14:E28/C14:C28</f>
         <v>2.5099999999999998</v>
       </c>
       <c r="W14" s="17">
         <v>1</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="77">
         <v>7.5</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="Y14" s="67">
         <v>0.09</v>
       </c>
-      <c r="Z14" s="27" cm="1">
+      <c r="Z14" s="80" cm="1">
         <f t="array" ref="Z14:Z32">(W14:W32/(X14:X32*0.000001))*0.001</f>
         <v>133.33333333333334</v>
       </c>
-      <c r="AA14" s="27" cm="1">
+      <c r="AA14" s="85" cm="1">
         <f t="array" ref="AA14:AA32">(Y14:Y32*0.001)/(W14:W32)</f>
         <v>8.9999999999999992E-5</v>
       </c>
@@ -4043,20 +4131,20 @@
       <c r="AR14" s="36"/>
       <c r="AS14" s="32"/>
       <c r="AT14" s="32"/>
-      <c r="AU14" s="22">
+      <c r="AU14" s="75">
         <v>0.25</v>
       </c>
-      <c r="AV14" s="17">
+      <c r="AV14" s="89">
         <v>5</v>
       </c>
-      <c r="AW14" s="27">
+      <c r="AW14" s="67">
         <v>-0.5</v>
       </c>
-      <c r="AX14" s="27" cm="1">
+      <c r="AX14" s="67" cm="1">
         <f t="array" ref="AX14:AX29">((AV14:AV29*0.001)/(AU14:AU29*0.001))</f>
         <v>20</v>
       </c>
-      <c r="AY14" s="27" cm="1">
+      <c r="AY14" s="68" cm="1">
         <f t="array" ref="AY14:AY29">AW14:AW29/AU14:AU29</f>
         <v>-2</v>
       </c>
@@ -4072,85 +4160,85 @@
       <c r="BP14" s="22">
         <v>0.1</v>
       </c>
-      <c r="BQ14" s="17">
+      <c r="BQ14" s="89">
         <v>18.8</v>
       </c>
-      <c r="BR14" s="27">
+      <c r="BR14" s="68">
         <v>-1.149</v>
       </c>
-      <c r="BS14" s="27" cm="1">
+      <c r="BS14" s="80" cm="1">
         <f t="array" ref="BS14:BS29">((BQ14:BQ29*0.001)/(BP14:BP29*0.001))</f>
         <v>188</v>
       </c>
-      <c r="BT14" s="27" cm="1">
+      <c r="BT14" s="67" cm="1">
         <f t="array" ref="BT14:BT29">(BR14:BR29)/(BP14:BP29*0.001)*0.001</f>
         <v>-11.49</v>
       </c>
       <c r="CK14" s="17">
         <v>0.3</v>
       </c>
-      <c r="CL14" s="22">
+      <c r="CL14" s="93">
         <v>2</v>
       </c>
       <c r="CM14" s="27">
         <v>-0.50900000000000001</v>
       </c>
-      <c r="CN14" s="27">
+      <c r="CN14" s="80">
         <v>150</v>
       </c>
-      <c r="CO14" s="27">
+      <c r="CO14" s="68">
         <v>-1.6966666666666668</v>
       </c>
     </row>
-    <row r="15" spans="3:106" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="17">
+    <row r="15" spans="3:106" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="71">
         <v>1</v>
       </c>
       <c r="D15" s="22">
         <v>0.1</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="68">
         <v>2.4990000000000001</v>
       </c>
-      <c r="F15" s="27" cm="1">
+      <c r="F15" s="67" cm="1">
         <f t="array" ref="F15:F28">(C15:C28/(D15:D28*0.000001))*0.000001</f>
         <v>10</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="68">
         <v>2.4990000000000001</v>
       </c>
       <c r="W15" s="17">
         <v>2</v>
       </c>
-      <c r="X15" s="22">
+      <c r="X15" s="75">
         <v>15</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="Y15" s="67">
         <v>0.19</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="Z15" s="80">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA15" s="27">
+      <c r="AA15" s="85">
         <v>9.5000000000000005E-5</v>
       </c>
       <c r="AQ15" s="35"/>
       <c r="AR15" s="37"/>
       <c r="AS15" s="32"/>
       <c r="AT15" s="32"/>
-      <c r="AU15" s="22">
+      <c r="AU15" s="75">
         <v>0.5</v>
       </c>
-      <c r="AV15" s="17">
+      <c r="AV15" s="71">
         <v>10.5</v>
       </c>
-      <c r="AW15" s="27">
+      <c r="AW15" s="67">
         <v>-0.99</v>
       </c>
-      <c r="AX15" s="27">
+      <c r="AX15" s="67">
         <v>21</v>
       </c>
-      <c r="AY15" s="27">
+      <c r="AY15" s="68">
         <v>-1.98</v>
       </c>
       <c r="AZ15" s="32"/>
@@ -4165,16 +4253,16 @@
       <c r="BP15" s="22">
         <v>0.2</v>
       </c>
-      <c r="BQ15" s="17">
+      <c r="BQ15" s="89">
         <v>37.4</v>
       </c>
-      <c r="BR15" s="27">
+      <c r="BR15" s="68">
         <v>-2.2949999999999999</v>
       </c>
-      <c r="BS15" s="27">
+      <c r="BS15" s="80">
         <v>187</v>
       </c>
-      <c r="BT15" s="27">
+      <c r="BT15" s="67">
         <v>-11.475</v>
       </c>
       <c r="CK15" s="17">
@@ -4186,61 +4274,61 @@
       <c r="CM15" s="27">
         <v>-0.54100000000000004</v>
       </c>
-      <c r="CN15" s="27">
+      <c r="CN15" s="80">
         <v>144.92753623188406</v>
       </c>
-      <c r="CO15" s="27">
+      <c r="CO15" s="68">
         <v>-0.54100000000000004</v>
       </c>
     </row>
-    <row r="16" spans="3:106" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="17">
+    <row r="16" spans="3:106" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="71">
         <v>1.5</v>
       </c>
       <c r="D16" s="22">
         <v>0.1</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="68">
         <v>3.7669999999999999</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="67">
         <v>15</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="68">
         <v>2.5113333333333334</v>
       </c>
       <c r="W16" s="17">
         <v>3</v>
       </c>
-      <c r="X16" s="22">
+      <c r="X16" s="75">
         <v>22.5</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="67">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z16" s="27">
+      <c r="Z16" s="80">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA16" s="27">
+      <c r="AA16" s="85">
         <v>9.6666666666666667E-5</v>
       </c>
       <c r="AQ16" s="36"/>
       <c r="AR16" s="36"/>
       <c r="AS16" s="32"/>
       <c r="AT16" s="32"/>
-      <c r="AU16" s="22">
+      <c r="AU16" s="75">
         <v>0.75</v>
       </c>
-      <c r="AV16" s="17">
+      <c r="AV16" s="71">
         <v>16</v>
       </c>
-      <c r="AW16" s="27">
+      <c r="AW16" s="67">
         <v>-1.49</v>
       </c>
-      <c r="AX16" s="27">
+      <c r="AX16" s="67">
         <v>21.333333333333332</v>
       </c>
-      <c r="AY16" s="27">
+      <c r="AY16" s="68">
         <v>-1.9866666666666666</v>
       </c>
       <c r="AZ16" s="32"/>
@@ -4255,16 +4343,16 @@
       <c r="BP16" s="22">
         <v>0.3</v>
       </c>
-      <c r="BQ16" s="17">
+      <c r="BQ16" s="89">
         <v>54.9</v>
       </c>
-      <c r="BR16" s="27">
+      <c r="BR16" s="68">
         <v>-3.36</v>
       </c>
-      <c r="BS16" s="27">
+      <c r="BS16" s="80">
         <v>183</v>
       </c>
-      <c r="BT16" s="27">
+      <c r="BT16" s="67">
         <v>-11.200000000000001</v>
       </c>
       <c r="CK16" s="17">
@@ -4273,64 +4361,64 @@
       <c r="CL16" s="22">
         <v>20.7</v>
       </c>
-      <c r="CM16" s="27">
+      <c r="CM16" s="68">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="CN16" s="27">
+      <c r="CN16" s="80">
         <v>144.92753623188406</v>
       </c>
-      <c r="CO16" s="27">
+      <c r="CO16" s="68">
         <v>-0.18999999999999997</v>
       </c>
     </row>
-    <row r="17" spans="3:93" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="17">
+    <row r="17" spans="3:93" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="71">
         <v>2</v>
       </c>
       <c r="D17" s="22">
         <v>0.2</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="68">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="67">
         <v>10</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="68">
         <v>2.4900000000000002</v>
       </c>
       <c r="W17" s="17">
         <v>4</v>
       </c>
-      <c r="X17" s="22">
+      <c r="X17" s="75">
         <v>30.1</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="Y17" s="67">
         <v>0.39</v>
       </c>
-      <c r="Z17" s="27">
+      <c r="Z17" s="80">
         <v>132.89036544850498</v>
       </c>
-      <c r="AA17" s="27">
+      <c r="AA17" s="85">
         <v>9.7500000000000012E-5</v>
       </c>
       <c r="AQ17" s="35"/>
       <c r="AR17" s="36"/>
       <c r="AS17" s="32"/>
       <c r="AT17" s="32"/>
-      <c r="AU17" s="22">
+      <c r="AU17" s="75">
         <v>1</v>
       </c>
-      <c r="AV17" s="17">
+      <c r="AV17" s="71">
         <v>21.6</v>
       </c>
-      <c r="AW17" s="27">
+      <c r="AW17" s="67">
         <v>-1.99</v>
       </c>
-      <c r="AX17" s="27">
+      <c r="AX17" s="67">
         <v>21.6</v>
       </c>
-      <c r="AY17" s="27">
+      <c r="AY17" s="68">
         <v>-1.99</v>
       </c>
       <c r="AZ17" s="32"/>
@@ -4345,16 +4433,16 @@
       <c r="BP17" s="22">
         <v>0.4</v>
       </c>
-      <c r="BQ17" s="17">
+      <c r="BQ17" s="89">
         <v>72.599999999999994</v>
       </c>
-      <c r="BR17" s="27">
+      <c r="BR17" s="68">
         <v>-4.42</v>
       </c>
-      <c r="BS17" s="27">
+      <c r="BS17" s="80">
         <v>181.5</v>
       </c>
-      <c r="BT17" s="27">
+      <c r="BT17" s="67">
         <v>-11.05</v>
       </c>
       <c r="CK17" s="17">
@@ -4366,142 +4454,142 @@
       <c r="CM17" s="27">
         <v>-0.58799999999999997</v>
       </c>
-      <c r="CN17" s="27">
+      <c r="CN17" s="80">
         <v>144.57831325301206</v>
       </c>
-      <c r="CO17" s="27">
+      <c r="CO17" s="68">
         <v>-9.799999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:93" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="17">
+    <row r="18" spans="3:93" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="71">
         <v>2.5</v>
       </c>
       <c r="D18" s="22">
         <v>0.2</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="68">
         <v>6.24</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="67">
         <v>12.5</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="68">
         <v>2.496</v>
       </c>
       <c r="W18" s="17">
         <v>5</v>
       </c>
-      <c r="X18" s="22">
+      <c r="X18" s="75">
         <v>37.5</v>
       </c>
-      <c r="Y18" s="27">
+      <c r="Y18" s="67">
         <v>0.49</v>
       </c>
-      <c r="Z18" s="27">
+      <c r="Z18" s="80">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA18" s="27">
+      <c r="AA18" s="85">
         <v>9.7999999999999997E-5</v>
       </c>
       <c r="AQ18" s="35"/>
       <c r="AR18" s="36"/>
       <c r="AS18" s="32"/>
       <c r="AT18" s="32"/>
-      <c r="AU18" s="22">
+      <c r="AU18" s="75">
         <v>1.25</v>
       </c>
-      <c r="AV18" s="17">
+      <c r="AV18" s="71">
         <v>26.8</v>
       </c>
-      <c r="AW18" s="27">
+      <c r="AW18" s="67">
         <v>-2.5</v>
       </c>
-      <c r="AX18" s="27">
+      <c r="AX18" s="67">
         <v>21.44</v>
       </c>
-      <c r="AY18" s="27">
+      <c r="AY18" s="68">
         <v>-2</v>
       </c>
       <c r="BP18" s="22">
         <v>0.5</v>
       </c>
-      <c r="BQ18" s="17">
+      <c r="BQ18" s="89">
         <v>91.6</v>
       </c>
-      <c r="BR18" s="27">
+      <c r="BR18" s="68">
         <v>-5.58</v>
       </c>
-      <c r="BS18" s="27">
+      <c r="BS18" s="80">
         <v>183.2</v>
       </c>
-      <c r="BT18" s="27">
+      <c r="BT18" s="67">
         <v>-11.16</v>
       </c>
       <c r="CK18" s="17">
         <v>10</v>
       </c>
-      <c r="CL18" s="22">
+      <c r="CL18" s="93">
         <v>69</v>
       </c>
       <c r="CM18" s="27">
         <v>-0.60199999999999998</v>
       </c>
-      <c r="CN18" s="27">
+      <c r="CN18" s="80">
         <v>144.92753623188406</v>
       </c>
-      <c r="CO18" s="27">
+      <c r="CO18" s="68">
         <v>-6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:93" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="17">
+    <row r="19" spans="3:93" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="71">
         <v>3</v>
       </c>
       <c r="D19" s="22">
         <v>0.3</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="68">
         <v>7.48</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="67">
         <v>10</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="68">
         <v>2.4933333333333336</v>
       </c>
       <c r="W19" s="17">
         <v>6</v>
       </c>
-      <c r="X19" s="22">
+      <c r="X19" s="75">
         <v>45</v>
       </c>
-      <c r="Y19" s="27">
+      <c r="Y19" s="67">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Z19" s="27">
+      <c r="Z19" s="80">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA19" s="27">
+      <c r="AA19" s="85">
         <v>9.6666666666666667E-5</v>
       </c>
       <c r="AQ19" s="38"/>
       <c r="AR19" s="38"/>
       <c r="AS19" s="38"/>
       <c r="AT19" s="38"/>
-      <c r="AU19" s="22">
+      <c r="AU19" s="75">
         <v>1.5</v>
       </c>
-      <c r="AV19" s="17">
+      <c r="AV19" s="71">
         <v>32.5</v>
       </c>
-      <c r="AW19" s="27">
+      <c r="AW19" s="67">
         <v>-2.99</v>
       </c>
-      <c r="AX19" s="27">
+      <c r="AX19" s="67">
         <v>21.666666666666668</v>
       </c>
-      <c r="AY19" s="27">
+      <c r="AY19" s="68">
         <v>-1.9933333333333334</v>
       </c>
       <c r="AZ19" s="38"/>
@@ -4516,16 +4604,16 @@
       <c r="BP19" s="22">
         <v>0.6</v>
       </c>
-      <c r="BQ19" s="17">
+      <c r="BQ19" s="71">
         <v>108.8</v>
       </c>
-      <c r="BR19" s="27">
+      <c r="BR19" s="68">
         <v>-6.62</v>
       </c>
-      <c r="BS19" s="27">
+      <c r="BS19" s="80">
         <v>181.33333333333334</v>
       </c>
-      <c r="BT19" s="27">
+      <c r="BT19" s="67">
         <v>-11.033333333333335</v>
       </c>
       <c r="CK19" s="17">
@@ -4537,77 +4625,85 @@
       <c r="CM19" s="27">
         <v>-0.61199999999999999</v>
       </c>
-      <c r="CN19" s="27">
+      <c r="CN19" s="80">
         <v>144.6480231436837</v>
       </c>
-      <c r="CO19" s="27">
+      <c r="CO19" s="68">
         <v>-4.0799999999999996E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17">
+    <row r="20" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="71">
         <v>3.5</v>
       </c>
       <c r="D20" s="22">
         <v>0.3</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="68">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="67">
         <v>11.666666666666668</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="68">
         <v>2.4857142857142853</v>
       </c>
       <c r="W20" s="17">
         <v>7</v>
       </c>
-      <c r="X20" s="22">
+      <c r="X20" s="75">
         <v>52.5</v>
       </c>
-      <c r="Y20" s="27">
+      <c r="Y20" s="67">
         <v>0.68</v>
       </c>
-      <c r="Z20" s="27">
+      <c r="Z20" s="80">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA20" s="27">
+      <c r="AA20" s="85">
         <v>9.7142857142857152E-5</v>
       </c>
-      <c r="AU20" s="22">
+      <c r="AU20" s="75">
         <v>1.75</v>
       </c>
-      <c r="AV20" s="17">
+      <c r="AV20" s="71">
         <v>37.9</v>
       </c>
-      <c r="AW20" s="27">
+      <c r="AW20" s="67">
         <v>-3.49</v>
       </c>
-      <c r="AX20" s="27">
+      <c r="AX20" s="67">
         <v>21.657142857142855</v>
       </c>
-      <c r="AY20" s="27">
+      <c r="AY20" s="68">
         <v>-1.9942857142857144</v>
       </c>
       <c r="BP20" s="22">
         <v>0.7</v>
       </c>
-      <c r="BQ20" s="17">
+      <c r="BQ20" s="71">
         <v>127</v>
       </c>
-      <c r="BR20" s="27">
+      <c r="BR20" s="68">
         <v>-7.73</v>
       </c>
-      <c r="BS20" s="27">
+      <c r="BS20" s="80">
         <v>181.42857142857144</v>
       </c>
-      <c r="BT20" s="27">
+      <c r="BT20" s="67">
         <v>-11.042857142857143</v>
       </c>
+      <c r="CN20" s="83">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(CN13))</f>
+        <v>148.66794453700209</v>
+      </c>
+      <c r="CO20" s="90">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(CO13))</f>
+        <v>-1.0623809523809524</v>
+      </c>
     </row>
-    <row r="21" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="17">
+    <row r="21" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="71">
         <v>4</v>
       </c>
       <c r="D21" s="22">
@@ -4616,60 +4712,60 @@
       <c r="E21" s="27">
         <v>10.01</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="67">
         <v>10</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="68">
         <v>2.5024999999999999</v>
       </c>
       <c r="W21" s="17">
         <v>8</v>
       </c>
-      <c r="X21" s="22">
+      <c r="X21" s="75">
         <v>60</v>
       </c>
-      <c r="Y21" s="27">
+      <c r="Y21" s="67">
         <v>0.78</v>
       </c>
-      <c r="Z21" s="27">
+      <c r="Z21" s="80">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA21" s="27">
+      <c r="AA21" s="85">
         <v>9.7500000000000012E-5</v>
       </c>
-      <c r="AU21" s="22">
+      <c r="AU21" s="75">
         <v>2</v>
       </c>
-      <c r="AV21" s="17">
+      <c r="AV21" s="71">
         <v>43.4</v>
       </c>
-      <c r="AW21" s="27">
+      <c r="AW21" s="67">
         <v>-3.99</v>
       </c>
-      <c r="AX21" s="27">
+      <c r="AX21" s="67">
         <v>21.7</v>
       </c>
-      <c r="AY21" s="27">
+      <c r="AY21" s="68">
         <v>-1.9950000000000001</v>
       </c>
       <c r="BP21" s="22">
         <v>0.8</v>
       </c>
-      <c r="BQ21" s="17">
+      <c r="BQ21" s="71">
         <v>144.6</v>
       </c>
-      <c r="BR21" s="27">
+      <c r="BR21" s="68">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="BS21" s="27">
+      <c r="BS21" s="80">
         <v>180.75</v>
       </c>
-      <c r="BT21" s="27">
+      <c r="BT21" s="67">
         <v>-11</v>
       </c>
     </row>
-    <row r="22" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="17">
+    <row r="22" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="71">
         <v>4.5</v>
       </c>
       <c r="D22" s="22">
@@ -4678,60 +4774,60 @@
       <c r="E22" s="27">
         <v>11.24</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="68">
         <v>9</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="68">
         <v>2.4977777777777779</v>
       </c>
       <c r="W22" s="17">
         <v>9</v>
       </c>
-      <c r="X22" s="22">
+      <c r="X22" s="75">
         <v>67.5</v>
       </c>
-      <c r="Y22" s="27">
+      <c r="Y22" s="67">
         <v>0.88</v>
       </c>
-      <c r="Z22" s="27">
+      <c r="Z22" s="80">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA22" s="27">
+      <c r="AA22" s="85">
         <v>9.777777777777778E-5</v>
       </c>
-      <c r="AU22" s="22">
+      <c r="AU22" s="75">
         <v>2.25</v>
       </c>
-      <c r="AV22" s="17">
+      <c r="AV22" s="71">
         <v>48.7</v>
       </c>
-      <c r="AW22" s="27">
+      <c r="AW22" s="67">
         <v>-4.49</v>
       </c>
-      <c r="AX22" s="27">
+      <c r="AX22" s="67">
         <v>21.644444444444446</v>
       </c>
-      <c r="AY22" s="27">
+      <c r="AY22" s="68">
         <v>-1.9955555555555557</v>
       </c>
       <c r="BP22" s="22">
         <v>0.9</v>
       </c>
-      <c r="BQ22" s="17">
+      <c r="BQ22" s="71">
         <v>162.19999999999999</v>
       </c>
-      <c r="BR22" s="27">
+      <c r="BR22" s="68">
         <v>-9.8800000000000008</v>
       </c>
-      <c r="BS22" s="27">
+      <c r="BS22" s="80">
         <v>180.2222222222222</v>
       </c>
-      <c r="BT22" s="27">
+      <c r="BT22" s="67">
         <v>-10.977777777777778</v>
       </c>
     </row>
-    <row r="23" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="17">
+    <row r="23" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="71">
         <v>5</v>
       </c>
       <c r="D23" s="23">
@@ -4740,60 +4836,60 @@
       <c r="E23" s="28">
         <v>12.52</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="69">
         <v>8.3333333333333339</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="69">
         <v>2.504</v>
       </c>
       <c r="W23" s="17">
         <v>10</v>
       </c>
-      <c r="X23" s="23">
+      <c r="X23" s="76">
         <v>75</v>
       </c>
-      <c r="Y23" s="28">
+      <c r="Y23" s="72">
         <v>0.98</v>
       </c>
-      <c r="Z23" s="28">
+      <c r="Z23" s="81">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA23" s="28">
+      <c r="AA23" s="86">
         <v>9.7999999999999997E-5</v>
       </c>
-      <c r="AU23" s="22">
+      <c r="AU23" s="75">
         <v>2.5</v>
       </c>
-      <c r="AV23" s="17">
+      <c r="AV23" s="71">
         <v>54.6</v>
       </c>
-      <c r="AW23" s="28">
+      <c r="AW23" s="72">
         <v>-5</v>
       </c>
-      <c r="AX23" s="28">
+      <c r="AX23" s="72">
         <v>21.84</v>
       </c>
-      <c r="AY23" s="28">
+      <c r="AY23" s="69">
         <v>-2</v>
       </c>
-      <c r="BP23" s="22">
+      <c r="BP23" s="93">
         <v>1</v>
       </c>
-      <c r="BQ23" s="17">
+      <c r="BQ23" s="71">
         <v>181.9</v>
       </c>
       <c r="BR23" s="27">
         <v>-11.08</v>
       </c>
-      <c r="BS23" s="27">
+      <c r="BS23" s="80">
         <v>181.9</v>
       </c>
-      <c r="BT23" s="28">
+      <c r="BT23" s="72">
         <v>-11.08</v>
       </c>
     </row>
-    <row r="24" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17">
+    <row r="24" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="71">
         <v>5.5</v>
       </c>
       <c r="D24" s="23">
@@ -4802,122 +4898,122 @@
       <c r="E24" s="28">
         <v>13.75</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="69">
         <v>9.1666666666666679</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="69">
         <v>2.5</v>
       </c>
       <c r="W24" s="17">
         <v>11</v>
       </c>
-      <c r="X24" s="23">
+      <c r="X24" s="76">
         <v>82.5</v>
       </c>
-      <c r="Y24" s="28">
+      <c r="Y24" s="72">
         <v>1.07</v>
       </c>
-      <c r="Z24" s="28">
+      <c r="Z24" s="81">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA24" s="28">
+      <c r="AA24" s="86">
         <v>9.727272727272727E-5</v>
       </c>
-      <c r="AU24" s="22">
+      <c r="AU24" s="75">
         <v>2.75</v>
       </c>
-      <c r="AV24" s="17">
+      <c r="AV24" s="71">
         <v>59.9</v>
       </c>
-      <c r="AW24" s="28">
+      <c r="AW24" s="72">
         <v>-5.5</v>
       </c>
-      <c r="AX24" s="28">
+      <c r="AX24" s="72">
         <v>21.781818181818185</v>
       </c>
-      <c r="AY24" s="28">
+      <c r="AY24" s="69">
         <v>-2</v>
       </c>
       <c r="BP24" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BQ24" s="18">
+      <c r="BQ24" s="94">
         <v>199.1</v>
       </c>
       <c r="BR24" s="28">
         <v>-12.12</v>
       </c>
-      <c r="BS24" s="28">
+      <c r="BS24" s="81">
         <v>181</v>
       </c>
-      <c r="BT24" s="28">
+      <c r="BT24" s="72">
         <v>-11.018181818181816</v>
       </c>
     </row>
-    <row r="25" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="17">
+    <row r="25" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="71">
         <v>6</v>
       </c>
       <c r="D25" s="23">
         <v>0.7</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="72">
         <v>15</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="69">
         <v>8.5714285714285712</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="69">
         <v>2.5</v>
       </c>
       <c r="W25" s="17">
         <v>12</v>
       </c>
-      <c r="X25" s="23">
+      <c r="X25" s="76">
         <v>90</v>
       </c>
-      <c r="Y25" s="28">
+      <c r="Y25" s="72">
         <v>1.17</v>
       </c>
-      <c r="Z25" s="28">
+      <c r="Z25" s="81">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA25" s="28">
+      <c r="AA25" s="86">
         <v>9.7499999999999998E-5</v>
       </c>
-      <c r="AU25" s="22">
+      <c r="AU25" s="75">
         <v>3</v>
       </c>
-      <c r="AV25" s="17">
+      <c r="AV25" s="71">
         <v>65.8</v>
       </c>
-      <c r="AW25" s="28">
+      <c r="AW25" s="72">
         <v>-6</v>
       </c>
-      <c r="AX25" s="28">
+      <c r="AX25" s="72">
         <v>21.933333333333334</v>
       </c>
-      <c r="AY25" s="28">
+      <c r="AY25" s="69">
         <v>-2</v>
       </c>
       <c r="BP25" s="22">
         <v>1.2</v>
       </c>
-      <c r="BQ25" s="18">
+      <c r="BQ25" s="94">
         <v>434</v>
       </c>
       <c r="BR25" s="28">
         <v>-12.98</v>
       </c>
-      <c r="BS25" s="28">
+      <c r="BS25" s="81">
         <v>361.66666666666669</v>
       </c>
-      <c r="BT25" s="28">
+      <c r="BT25" s="72">
         <v>-10.816666666666668</v>
       </c>
     </row>
-    <row r="26" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="17">
+    <row r="26" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="71">
         <v>6.5</v>
       </c>
       <c r="D26" s="23">
@@ -4926,60 +5022,60 @@
       <c r="E26" s="28">
         <v>15.07</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="69">
         <v>8.125</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="69">
         <v>2.3184615384615386</v>
       </c>
       <c r="W26" s="17">
         <v>13</v>
       </c>
-      <c r="X26" s="23">
+      <c r="X26" s="76">
         <v>97.5</v>
       </c>
-      <c r="Y26" s="28">
+      <c r="Y26" s="72">
         <v>1.27</v>
       </c>
-      <c r="Z26" s="28">
+      <c r="Z26" s="81">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA26" s="28">
+      <c r="AA26" s="86">
         <v>9.7692307692307694E-5</v>
       </c>
-      <c r="AU26" s="22">
+      <c r="AU26" s="75">
         <v>3.25</v>
       </c>
       <c r="AV26" s="17">
         <v>431</v>
       </c>
-      <c r="AW26" s="28">
+      <c r="AW26" s="72">
         <v>-6.39</v>
       </c>
-      <c r="AX26" s="28">
+      <c r="AX26" s="81">
         <v>132.61538461538461</v>
       </c>
-      <c r="AY26" s="28">
+      <c r="AY26" s="69">
         <v>-1.9661538461538461</v>
       </c>
-      <c r="BP26" s="23">
+      <c r="BP26" s="76">
         <v>1.25</v>
       </c>
-      <c r="BQ26" s="18">
+      <c r="BQ26" s="94">
         <v>675</v>
       </c>
       <c r="BR26" s="28">
         <v>-12.99</v>
       </c>
-      <c r="BS26" s="28">
+      <c r="BS26" s="81">
         <v>540</v>
       </c>
-      <c r="BT26" s="28">
+      <c r="BT26" s="72">
         <v>-10.391999999999999</v>
       </c>
     </row>
-    <row r="27" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="17">
+    <row r="27" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="71">
         <v>7</v>
       </c>
       <c r="D27" s="23">
@@ -4988,60 +5084,60 @@
       <c r="E27" s="28">
         <v>15.07</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="69">
         <v>8.75</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="69">
         <v>2.152857142857143</v>
       </c>
       <c r="W27" s="17">
         <v>14</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X27" s="74">
         <v>105</v>
       </c>
-      <c r="Y27" s="28">
+      <c r="Y27" s="72">
         <v>1.37</v>
       </c>
-      <c r="Z27" s="28">
+      <c r="Z27" s="81">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA27" s="28">
+      <c r="AA27" s="86">
         <v>9.7857142857142872E-5</v>
       </c>
-      <c r="AU27" s="22">
+      <c r="AU27" s="75">
         <v>3.5</v>
       </c>
       <c r="AV27" s="17">
         <v>609</v>
       </c>
-      <c r="AW27" s="28">
+      <c r="AW27" s="72">
         <v>-6.43</v>
       </c>
-      <c r="AX27" s="28">
+      <c r="AX27" s="81">
         <v>174</v>
       </c>
-      <c r="AY27" s="28">
+      <c r="AY27" s="69">
         <v>-1.837142857142857</v>
       </c>
-      <c r="BP27" s="23">
+      <c r="BP27" s="76">
         <v>1.3</v>
       </c>
-      <c r="BQ27" s="18">
+      <c r="BQ27" s="94">
         <v>719</v>
       </c>
       <c r="BR27" s="28">
         <v>-12.99</v>
       </c>
-      <c r="BS27" s="28">
+      <c r="BS27" s="81">
         <v>553.07692307692298</v>
       </c>
-      <c r="BT27" s="28">
+      <c r="BT27" s="69">
         <v>-9.9923076923076923</v>
       </c>
     </row>
-    <row r="28" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="17">
+    <row r="28" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="71">
         <v>7.5</v>
       </c>
       <c r="D28" s="24">
@@ -5050,10 +5146,10 @@
       <c r="E28" s="29">
         <v>15.07</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="70">
         <v>8.3333333333333339</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="70">
         <v>2.0093333333333332</v>
       </c>
       <c r="W28" s="17">
@@ -5062,145 +5158,176 @@
       <c r="X28" s="24">
         <v>106.5</v>
       </c>
-      <c r="Y28" s="29">
+      <c r="Y28" s="78">
         <v>1.39</v>
       </c>
-      <c r="Z28" s="29">
+      <c r="Z28" s="82">
         <v>133.33333333333331</v>
       </c>
-      <c r="AA28" s="29">
+      <c r="AA28" s="87">
         <v>9.7887323943661968E-5</v>
       </c>
-      <c r="AU28" s="22">
+      <c r="AU28" s="75">
         <v>3.75</v>
       </c>
       <c r="AV28" s="17">
         <v>651</v>
       </c>
-      <c r="AW28" s="29">
+      <c r="AW28" s="78">
         <v>-6.44</v>
       </c>
-      <c r="AX28" s="29">
+      <c r="AX28" s="82">
         <v>173.60000000000002</v>
       </c>
-      <c r="AY28" s="29">
+      <c r="AY28" s="70">
         <v>-1.7173333333333334</v>
       </c>
-      <c r="BP28" s="23">
+      <c r="BP28" s="76">
         <v>1.35</v>
       </c>
-      <c r="BQ28" s="18">
+      <c r="BQ28" s="94">
         <v>751</v>
       </c>
       <c r="BR28" s="28">
         <v>-12.99</v>
       </c>
-      <c r="BS28" s="28">
+      <c r="BS28" s="81">
         <v>556.2962962962963</v>
       </c>
-      <c r="BT28" s="29">
+      <c r="BT28" s="70">
         <v>-9.6222222222222236</v>
       </c>
     </row>
-    <row r="29" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="90">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(G14))</f>
+        <v>2.4313540496540496</v>
+      </c>
       <c r="W29" s="31">
         <v>14.4</v>
       </c>
-      <c r="X29" s="32">
+      <c r="X29" s="73">
         <v>108</v>
       </c>
-      <c r="Y29" s="32">
+      <c r="Y29" s="79">
         <v>1.4</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="84">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="88">
         <v>9.7222222222222217E-5</v>
       </c>
-      <c r="AU29" s="22">
+      <c r="AU29" s="75">
         <v>4</v>
       </c>
       <c r="AV29" s="31">
         <v>676</v>
       </c>
-      <c r="AW29" s="32">
+      <c r="AW29" s="79">
         <v>-6.44</v>
       </c>
-      <c r="AX29">
+      <c r="AX29" s="91">
         <v>169</v>
       </c>
-      <c r="AY29">
+      <c r="AY29" s="92">
         <v>-1.61</v>
       </c>
-      <c r="BP29" s="23">
+      <c r="BP29" s="76">
         <v>1.4</v>
       </c>
-      <c r="BQ29" s="19">
+      <c r="BQ29" s="95">
         <v>776</v>
       </c>
       <c r="BR29" s="29">
         <v>-12.99</v>
       </c>
-      <c r="BS29" s="29">
+      <c r="BS29" s="82">
         <v>554.28571428571433</v>
       </c>
-      <c r="BT29">
+      <c r="BT29" s="92">
         <v>-9.2785714285714302</v>
       </c>
     </row>
-    <row r="30" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W30" s="17">
         <v>14.6</v>
       </c>
       <c r="X30" s="32">
         <v>109.4</v>
       </c>
-      <c r="Y30" s="32">
+      <c r="Y30" s="79">
         <v>1.43</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="84">
         <v>133.45521023765994</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="88">
         <v>9.7945205479452055E-5</v>
       </c>
+      <c r="AX30" s="96">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(AX14))</f>
+        <v>56.675757714507718</v>
+      </c>
+      <c r="AY30" s="90">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(AY14))</f>
+        <v>-1.9415919566544568</v>
+      </c>
+      <c r="BS30" s="83">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(BS14))</f>
+        <v>285.91623295685798</v>
+      </c>
+      <c r="BT30" s="96">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(BT14))</f>
+        <v>-10.789307380119881</v>
+      </c>
     </row>
-    <row r="31" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W31" s="31">
         <v>14.8</v>
       </c>
-      <c r="X31" s="32">
+      <c r="X31" s="73">
         <v>111</v>
       </c>
-      <c r="Y31" s="32">
+      <c r="Y31" s="79">
         <v>1.44</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="84">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="88">
         <v>9.7297297297297281E-5</v>
       </c>
     </row>
-    <row r="32" spans="3:93" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:93" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W32" s="17">
         <v>15</v>
       </c>
       <c r="X32" s="32">
         <v>112.5</v>
       </c>
-      <c r="Y32" s="32">
+      <c r="Y32" s="79">
         <v>1.47</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="84">
         <v>133.33333333333334</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="88">
         <v>9.7999999999999997E-5</v>
       </c>
     </row>
-    <row r="33" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="27:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AA33" s="88">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(AA14))</f>
+        <v>9.699622079046209E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA34">
+        <f>GEOMEAN(AA14:AA28)</f>
+        <v>9.6810056198559888E-5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C8:T8"/>
